--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="861">
   <si>
     <t>anchor score</t>
   </si>
@@ -304,484 +304,484 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>ex</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>3</t>
@@ -2962,10 +2962,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3023,7 +3023,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03270679357146041</v>
+        <v>0.03320365397453657</v>
       </c>
       <c r="C3">
         <v>238</v>
@@ -3044,28 +3044,28 @@
         <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="K3">
-        <v>0.005366828539252188</v>
+        <v>0.009123903927852905</v>
       </c>
       <c r="L3">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="M3">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>295</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3073,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01979312270286782</v>
+        <v>0.02009380699045461</v>
       </c>
       <c r="C4">
         <v>250</v>
@@ -3094,28 +3094,28 @@
         <v>264</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="K4">
-        <v>0.004946516991509324</v>
+        <v>0.007988079880968899</v>
       </c>
       <c r="L4">
-        <v>658</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>690</v>
+        <v>174</v>
       </c>
       <c r="N4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2417</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3123,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01340847810140984</v>
+        <v>0.0136121710075808</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -3144,28 +3144,28 @@
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="K5">
-        <v>0.004478347063534745</v>
+        <v>0.005366828539252188</v>
       </c>
       <c r="L5">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="M5">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>83</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3173,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01180403091625442</v>
+        <v>0.01198335010100297</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3194,28 +3194,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.004450047584645471</v>
+        <v>0.004946516991509324</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>658</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>690</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>61</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3223,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01121833764410713</v>
+        <v>0.01138875935638893</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -3244,28 +3244,28 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>0.004450047584645471</v>
+        <v>0.004478347063534745</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>176</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3273,7 +3273,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01060033268923632</v>
+        <v>0.01076136607091611</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3294,16 +3294,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K8">
-        <v>0.004016928608901922</v>
+        <v>0.004450047584645471</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3323,7 +3323,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009481225790898223</v>
+        <v>0.009625258426131302</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3344,16 +3344,16 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K9">
-        <v>0.003924573077125191</v>
+        <v>0.004450047584645471</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3373,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009481225790898223</v>
+        <v>0.009625258426131302</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3394,16 +3394,16 @@
         <v>31</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K10">
-        <v>0.0038775705063914</v>
+        <v>0.004016928608901922</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3423,7 +3423,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008994680552870915</v>
+        <v>0.009131321908290739</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -3444,28 +3444,28 @@
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="K11">
-        <v>0.00386775108352495</v>
+        <v>0.003924573077125191</v>
       </c>
       <c r="L11">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1842</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3473,7 +3473,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008994680552870915</v>
+        <v>0.009131321908290739</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3494,28 +3494,28 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="K12">
-        <v>0.00373889915573157</v>
+        <v>0.0038775705063914</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3523,7 +3523,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008480266151389053</v>
+        <v>0.008609092856732892</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -3544,16 +3544,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K13">
-        <v>0.003683569701182657</v>
+        <v>0.00386775108352495</v>
       </c>
       <c r="L13">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M13">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="N13">
         <v>0.97</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>622</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3573,7 +3573,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008480266151389053</v>
+        <v>0.008609092856732892</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -3594,28 +3594,28 @@
         <v>61</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="K14">
-        <v>0.003425648227868943</v>
+        <v>0.00373889915573157</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3623,7 +3623,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008210982393934066</v>
+        <v>0.008335718315019931</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -3644,28 +3644,28 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15">
-        <v>0.003394196878749666</v>
+        <v>0.003683569701182657</v>
       </c>
       <c r="L15">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="M15">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>651</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3673,7 +3673,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008210982393934066</v>
+        <v>0.008335718315019931</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3694,16 +3694,16 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K16">
-        <v>0.003316869634125341</v>
+        <v>0.003425648227868943</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3723,7 +3723,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007644008609603723</v>
+        <v>0.007760131432545298</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -3744,28 +3744,28 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K17">
-        <v>0.003253226421366122</v>
+        <v>0.003394196878749666</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="M17">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3773,7 +3773,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007644008609603723</v>
+        <v>0.007760131432545298</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -3794,28 +3794,28 @@
         <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="K18">
-        <v>0.003177778790851242</v>
+        <v>0.003316869634125341</v>
       </c>
       <c r="L18">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>426</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3823,7 +3823,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007644008609603723</v>
+        <v>0.007760131432545298</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -3844,28 +3844,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K19">
-        <v>0.003112328798834362</v>
+        <v>0.003253226421366122</v>
       </c>
       <c r="L19">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>3045</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3873,7 +3873,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -3894,28 +3894,28 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="K20">
-        <v>0.003027873864857261</v>
+        <v>0.003177778790851242</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>39</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3923,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -3944,28 +3944,28 @@
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="K21">
-        <v>0.002975874519625464</v>
+        <v>0.003112328798834362</v>
       </c>
       <c r="L21">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="M21">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>74</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3973,7 +3973,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -3994,16 +3994,16 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K22">
-        <v>0.002966698389763647</v>
+        <v>0.003027873864857261</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4023,7 +4023,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -4044,28 +4044,28 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="K23">
-        <v>0.002904234585939434</v>
+        <v>0.002975874519625464</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4073,7 +4073,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -4094,16 +4094,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K24">
-        <v>0.002904234585939434</v>
+        <v>0.002966698389763647</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4123,7 +4123,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4144,16 +4144,16 @@
         <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K25">
-        <v>0.002840397458896795</v>
+        <v>0.002904234585939434</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4173,7 +4173,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006704239050704921</v>
+        <v>0.006806085503790399</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -4194,16 +4194,16 @@
         <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K26">
-        <v>0.002775092236097377</v>
+        <v>0.002904234585939434</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4223,7 +4223,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006704239050704921</v>
+        <v>0.006806085503790399</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -4244,25 +4244,25 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="K27">
-        <v>0.002650320231312707</v>
+        <v>0.002840397458896795</v>
       </c>
       <c r="L27">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>29</v>
@@ -4273,7 +4273,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006704239050704921</v>
+        <v>0.006806085503790399</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4294,16 +4294,16 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K28">
-        <v>0.002569236170901707</v>
+        <v>0.002775092236097377</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4323,7 +4323,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -4344,28 +4344,28 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="K29">
-        <v>0.002569236170901707</v>
+        <v>0.002650320231312707</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4373,7 +4373,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4394,28 +4394,28 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>96</v>
+        <v>269</v>
       </c>
       <c r="K30">
-        <v>0.002556530524375462</v>
+        <v>0.002569236170901707</v>
       </c>
       <c r="L30">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4423,7 +4423,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4444,28 +4444,28 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="K31">
-        <v>0.002548582814313412</v>
+        <v>0.002569236170901707</v>
       </c>
       <c r="L31">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4473,7 +4473,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4494,16 +4494,16 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K32">
-        <v>0.002506095142627715</v>
+        <v>0.002548582814313412</v>
       </c>
       <c r="L32">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M32">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N32">
         <v>0.97</v>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4523,7 +4523,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4544,28 +4544,28 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>271</v>
+        <v>137</v>
       </c>
       <c r="K33">
-        <v>0.002496848753170732</v>
+        <v>0.002506095142627715</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4573,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K34">
         <v>0.002496848753170732</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4623,7 +4623,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005996453701913945</v>
+        <v>0.006087547938860494</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4644,7 +4644,7 @@
         <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K35">
         <v>0.002496848753170732</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4673,7 +4673,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005996453701913945</v>
+        <v>0.006087547938860494</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -4694,7 +4694,7 @@
         <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K36">
         <v>0.002496848753170732</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4723,7 +4723,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005996453701913945</v>
+        <v>0.006087547938860494</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -4744,28 +4744,28 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="K37">
-        <v>0.002476265847569603</v>
+        <v>0.002496848753170732</v>
       </c>
       <c r="L37">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4773,7 +4773,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4794,28 +4794,28 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K38">
-        <v>0.002450423882936494</v>
+        <v>0.002476265847569603</v>
       </c>
       <c r="L38">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M38">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>215</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4823,7 +4823,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4844,28 +4844,28 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="K39">
-        <v>0.002422299091885809</v>
+        <v>0.002450423882936494</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4873,7 +4873,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K40">
         <v>0.002422299091885809</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4923,7 +4923,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -4944,16 +4944,16 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K41">
-        <v>0.002345381010601772</v>
+        <v>0.002422299091885809</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>291</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -4973,7 +4973,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -4994,28 +4994,28 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="K42">
-        <v>0.002333558868395574</v>
+        <v>0.002345381010601772</v>
       </c>
       <c r="L42">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5023,7 +5023,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5044,28 +5044,28 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="K43">
-        <v>0.002265853322532587</v>
+        <v>0.002333558868395574</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5073,7 +5073,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5094,7 +5094,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K44">
         <v>0.002265853322532587</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5123,7 +5123,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5144,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K45">
         <v>0.002265853322532587</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5194,28 +5194,28 @@
         <v>31</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="K46">
-        <v>0.002206658787154286</v>
+        <v>0.002265853322532587</v>
       </c>
       <c r="L46">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5244,7 +5244,7 @@
         <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K47">
         <v>0.002167766570177595</v>
@@ -5273,7 +5273,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5323,7 +5323,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5373,7 +5373,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5423,7 +5423,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5473,7 +5473,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5523,7 +5523,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5573,7 +5573,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5623,7 +5623,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5644,7 +5644,7 @@
         <v>26</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K55">
         <v>0.00200043090435045</v>
@@ -5673,7 +5673,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5694,7 +5694,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K56">
         <v>0.001993791820298059</v>
@@ -5723,7 +5723,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5744,7 +5744,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K57">
         <v>0.001975002794915526</v>
@@ -5773,7 +5773,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5823,7 +5823,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -5873,7 +5873,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -5923,7 +5923,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -5973,7 +5973,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -5994,7 +5994,7 @@
         <v>22</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K62">
         <v>0.001901242962674031</v>
@@ -6023,7 +6023,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003818943770515249</v>
+        <v>0.003876958688333396</v>
       </c>
       <c r="C63">
         <v>32</v>
@@ -6073,7 +6073,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6123,7 +6123,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6173,7 +6173,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K67">
         <v>0.001800815963346243</v>
@@ -6273,7 +6273,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6323,7 +6323,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6373,7 +6373,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6423,7 +6423,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6473,7 +6473,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6523,7 +6523,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6573,7 +6573,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6623,7 +6623,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6673,7 +6673,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6723,7 +6723,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6773,7 +6773,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6823,7 +6823,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6923,7 +6923,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -6973,7 +6973,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7023,7 +7023,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7073,7 +7073,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7123,7 +7123,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7173,7 +7173,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7223,7 +7223,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002510115689768062</v>
+        <v>0.002548247739938649</v>
       </c>
       <c r="C87">
         <v>10</v>
@@ -7273,7 +7273,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002423341801456137</v>
+        <v>0.002460155638973779</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -7323,7 +7323,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002385580020696037</v>
+        <v>0.002421820205722543</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -7344,7 +7344,7 @@
         <v>622</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K89">
         <v>0.001556164399417181</v>
@@ -7373,7 +7373,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002296315088903704</v>
+        <v>0.002331199218959734</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -7394,7 +7394,7 @@
         <v>651</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K90">
         <v>0.001498625088842723</v>
@@ -7423,28 +7423,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002222715039470439</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K91">
         <v>0.001483635986448425</v>
@@ -7473,7 +7473,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>317</v>
@@ -7523,7 +7523,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>318</v>
@@ -7573,7 +7573,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>319</v>
@@ -7623,7 +7623,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>320</v>
@@ -7673,7 +7673,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>321</v>
@@ -7723,7 +7723,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>322</v>
@@ -7773,7 +7773,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>323</v>
@@ -7823,7 +7823,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>324</v>
@@ -7873,7 +7873,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>325</v>
@@ -7923,7 +7923,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>326</v>
@@ -7973,7 +7973,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>327</v>
@@ -8023,7 +8023,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>328</v>
@@ -8073,7 +8073,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>329</v>
@@ -8123,7 +8123,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>330</v>
@@ -8173,7 +8173,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>331</v>
@@ -8223,7 +8223,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>332</v>
@@ -8273,7 +8273,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>333</v>
@@ -8323,7 +8323,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8341,10 +8341,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K109">
         <v>0.001447758755826583</v>
@@ -8373,7 +8373,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K110">
         <v>0.001446894705210925</v>
@@ -8423,7 +8423,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>334</v>
@@ -8473,7 +8473,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>335</v>
@@ -8523,7 +8523,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>336</v>
@@ -8573,7 +8573,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>337</v>
@@ -8623,7 +8623,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>338</v>
@@ -8673,7 +8673,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>339</v>
@@ -8723,7 +8723,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8741,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>340</v>
@@ -8773,7 +8773,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>341</v>
@@ -8823,7 +8823,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>342</v>
@@ -8873,7 +8873,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>343</v>
@@ -8923,7 +8923,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>344</v>
@@ -8973,7 +8973,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>345</v>
@@ -9023,7 +9023,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>346</v>
@@ -9073,25 +9073,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002120066537847263</v>
+        <v>0.002139781841678769</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>347</v>
@@ -9123,25 +9123,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002107762086588956</v>
+        <v>0.002084570418869139</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125">
+        <v>203</v>
+      </c>
+      <c r="E125">
+        <v>0.95</v>
+      </c>
+      <c r="F125">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125">
         <v>215</v>
-      </c>
-      <c r="E125">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F125">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>80</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>348</v>
@@ -9173,25 +9173,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002053376849048352</v>
+        <v>0.001794416684924498</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="E126">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F126">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>215</v>
+        <v>3045</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>349</v>
@@ -9223,25 +9223,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001942399773434822</v>
+        <v>0.001754382457617749</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D127">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>350</v>
@@ -9273,13 +9273,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001767564983661682</v>
+        <v>0.00167169141716873</v>
       </c>
       <c r="C128">
         <v>4</v>
       </c>
       <c r="D128">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E128">
         <v>0.97</v>
@@ -9291,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>3045</v>
+        <v>29</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>351</v>
@@ -9323,25 +9323,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001728129829647641</v>
+        <v>0.001665230558686393</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E129">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F129">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>274</v>
+        <v>426</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>352</v>
@@ -9373,13 +9373,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001646676180231542</v>
+        <v>0.001516691016765866</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E130">
         <v>0.97</v>
@@ -9391,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>353</v>
@@ -9423,25 +9423,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001640312002215525</v>
+        <v>0.001510957495538189</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D131">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="E131">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F131">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>426</v>
+        <v>110</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>354</v>
@@ -9473,13 +9473,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001493995210138373</v>
+        <v>0.001505542980363216</v>
       </c>
       <c r="C132">
         <v>3</v>
       </c>
       <c r="D132">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E132">
         <v>0.97</v>
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>355</v>
@@ -9523,25 +9523,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001488347485482074</v>
+        <v>0.00148650450327607</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E133">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F133">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>356</v>
@@ -9573,13 +9573,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001483013993263018</v>
+        <v>0.001458556131224593</v>
       </c>
       <c r="C134">
         <v>3</v>
       </c>
       <c r="D134">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E134">
         <v>0.97</v>
@@ -9591,10 +9591,10 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K134">
         <v>0.001334655353655397</v>
@@ -9623,28 +9623,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001464260408477387</v>
+        <v>0.0013837911406435</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="E135">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F135">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K135">
         <v>0.001293091577705264</v>
@@ -9673,28 +9673,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001436730256643885</v>
+        <v>0.001350875913654929</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K136">
         <v>0.001259515721995419</v>
@@ -9723,28 +9723,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001363084051464682</v>
+        <v>0.001301373967644936</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D137">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="E137">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F137">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K137">
         <v>0.001258052275067537</v>
@@ -9773,28 +9773,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001330661368849734</v>
+        <v>0.001292205815996432</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E138">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F138">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K138">
         <v>0.001244589825037073</v>
@@ -9823,28 +9823,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.00128190017133888</v>
+        <v>0.001244574652545855</v>
       </c>
       <c r="C139">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E139">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F139">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>256</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K139">
         <v>0.00123678883230402</v>
@@ -9873,28 +9873,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001272869212167054</v>
+        <v>0.001215262165034955</v>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E140">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F140">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K140">
         <v>0.001219186265177178</v>
@@ -9923,25 +9923,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.00122595080277328</v>
+        <v>0.001213846483551129</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E141">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F141">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>357</v>
@@ -9973,25 +9973,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001197076948142093</v>
+        <v>0.001160273698023699</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>358</v>
@@ -10023,25 +10023,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001195682450955431</v>
+        <v>0.001153996781448872</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E143">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F143">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>359</v>
@@ -10073,25 +10073,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001142911330083085</v>
+        <v>0.001105436369444082</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E144">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F144">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>360</v>
@@ -10123,25 +10123,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001136728341462749</v>
+        <v>0.001080680471790515</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E145">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F145">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>74</v>
+        <v>809</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>361</v>
@@ -10173,25 +10173,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001088894588816014</v>
+        <v>0.001072831239645818</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E146">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F146">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>362</v>
@@ -10223,25 +10223,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001064509139104596</v>
+        <v>0.001065252642870975</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E147">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F147">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>809</v>
+        <v>1109</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>363</v>
@@ -10273,25 +10273,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.00105677736308838</v>
+        <v>0.001023530004968816</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D148">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E148">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F148">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>161</v>
+        <v>588</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>364</v>
@@ -10323,25 +10323,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001049312172646802</v>
+        <v>0.0009955614990428531</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>52</v>
       </c>
       <c r="E149">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F149">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1109</v>
+        <v>7</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>365</v>
@@ -10373,25 +10373,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001008213873460538</v>
+        <v>0.0009911506698252793</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E150">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F150">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>588</v>
+        <v>52</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>366</v>
@@ -10423,25 +10423,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0009806638890364095</v>
+        <v>0.0009726848172927156</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E151">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F151">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>367</v>
@@ -10473,25 +10473,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0009763190635901266</v>
+        <v>0.0009540973743043351</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E152">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>368</v>
@@ -10523,25 +10523,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0009581295345892894</v>
+        <v>0.0009173530954923668</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E153">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F153">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>369</v>
@@ -10573,25 +10573,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0009398202346156037</v>
+        <v>0.0008972083424622492</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E154">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>370</v>
@@ -10623,25 +10623,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0009036257982154152</v>
+        <v>0.0008829585538810359</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E155">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F155">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>371</v>
@@ -10673,13 +10673,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0008837824918308411</v>
+        <v>0.0008788317412791191</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E156">
         <v>0.97</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>372</v>
@@ -10723,25 +10723,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0008697459374829336</v>
+        <v>0.000869225644989254</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E157">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>373</v>
@@ -10773,25 +10773,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0008656808786197583</v>
+        <v>0.0008592701992931062</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D158">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E158">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F158">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>374</v>
@@ -10823,13 +10823,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0008562185282223854</v>
+        <v>0.0008385399716379299</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E159">
         <v>0.97</v>
@@ -10841,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>375</v>
@@ -10873,25 +10873,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0008464120560929778</v>
+        <v>0.0008309417184231037</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E160">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F160">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>376</v>
@@ -10923,13 +10923,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0008259920361419447</v>
+        <v>0.0008163336254800184</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E161">
         <v>0.97</v>
@@ -10941,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>377</v>
@@ -10973,25 +10973,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0008185074833999007</v>
+        <v>0.0008046382768655826</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E162">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F162">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>378</v>
@@ -11023,25 +11023,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008041179863665739</v>
+        <v>0.000789586742464297</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D163">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>379</v>
@@ -11073,25 +11073,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0007925976472746185</v>
+        <v>0.0007799285723904552</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>380</v>
@@ -11123,25 +11123,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0007777713444534257</v>
+        <v>0.0007641564898989508</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E165">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F165">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>381</v>
@@ -11173,13 +11173,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.00076825769950563</v>
+        <v>0.0007532473674509576</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E166">
         <v>0.96</v>
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>382</v>
@@ -11223,13 +11223,13 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007527216308959139</v>
+        <v>0.0007460567342908829</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E167">
         <v>0.93</v>
@@ -11241,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>383</v>
@@ -11273,25 +11273,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007419757528601431</v>
+        <v>0.0007433902553636022</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E168">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F168">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>384</v>
@@ -11323,25 +11323,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0007348927205349955</v>
+        <v>0.000708839733370083</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>385</v>
@@ -11373,25 +11373,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0007322661428726666</v>
+        <v>0.0006877920302648765</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E170">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F170">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>386</v>
@@ -11423,25 +11423,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006982326358527811</v>
+        <v>0.0006757207342272453</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>387</v>
@@ -11473,25 +11473,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006774998911631968</v>
+        <v>0.0006742062953440336</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D172">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E172">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F172">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>388</v>
@@ -11523,13 +11523,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006656092303357596</v>
+        <v>0.0006579151282933765</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E173">
         <v>0.95</v>
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>389</v>
@@ -11573,25 +11573,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006641174535581863</v>
+        <v>0.0006193994050045531</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E174">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F174">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>390</v>
@@ -11623,28 +11623,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0006480700679851212</v>
+        <v>0.0006108547128955025</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="F175">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K175">
         <v>0.001193539945506675</v>
@@ -11673,13 +11673,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006101306950525788</v>
+        <v>0.0005984867129908289</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E176">
         <v>0.9399999999999999</v>
@@ -11691,10 +11691,10 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K176">
         <v>0.00116377263539182</v>
@@ -11723,28 +11723,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006017138659542896</v>
+        <v>0.0005984867129908289</v>
       </c>
       <c r="C177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E177">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F177">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K177">
         <v>0.001140268395294742</v>
@@ -11773,13 +11773,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0005895309411447424</v>
+        <v>0.0005763087060660226</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E178">
         <v>0.9399999999999999</v>
@@ -11791,10 +11791,10 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K178">
         <v>0.001117209351390347</v>
@@ -11823,13 +11823,13 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0005895309411447424</v>
+        <v>0.0005763087060660226</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E179">
         <v>0.9399999999999999</v>
@@ -11841,10 +11841,10 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K179">
         <v>0.001110178389616033</v>
@@ -11873,7 +11873,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0005676848065334032</v>
+        <v>0.0005763087060660226</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -11891,10 +11891,10 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K180">
         <v>0.001059687962776983</v>
@@ -11923,7 +11923,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0005676848065334032</v>
+        <v>0.0005763087060660226</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -11941,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>391</v>
@@ -11973,25 +11973,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0005676848065334032</v>
+        <v>0.0005527181847220408</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>392</v>
@@ -12023,25 +12023,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005676848065334032</v>
+        <v>0.0005527181847220408</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>393</v>
@@ -12073,7 +12073,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005444472944080072</v>
+        <v>0.0005527181847220408</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12091,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>394</v>
@@ -12123,25 +12123,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0005444472944080072</v>
+        <v>0.0005430593235545886</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D185">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>395</v>
@@ -12173,13 +12173,13 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005444472944080072</v>
+        <v>0.0005275417759669736</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E186">
         <v>0.93</v>
@@ -12191,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>396</v>
@@ -12223,25 +12223,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005349329687081454</v>
+        <v>0.0005275417759669736</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E187">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F187">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>397</v>
@@ -12273,7 +12273,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005196476261349256</v>
+        <v>0.0005275417759669736</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>398</v>
@@ -12323,25 +12323,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0005196476261349256</v>
+        <v>0.0005218318903751624</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E189">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>399</v>
@@ -12373,25 +12373,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0005196476261349256</v>
+        <v>0.0005005736047984316</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F190">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>400</v>
@@ -12423,25 +12423,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0005140231834301788</v>
+        <v>0.0004715670657233444</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F191">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>401</v>
@@ -12473,13 +12473,13 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0004930830074310403</v>
+        <v>0.0004715670657233444</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E192">
         <v>0.92</v>
@@ -12523,25 +12523,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004645105230147489</v>
+        <v>0.0004402240729117818</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E193">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F193">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>403</v>
@@ -12573,25 +12573,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0004645105230147489</v>
+        <v>0.000432836607956728</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E194">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F194">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>404</v>
@@ -12623,25 +12623,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0004336365476207846</v>
+        <v>0.0004061810376570284</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F195">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>405</v>
@@ -12673,25 +12673,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0004263596288971214</v>
+        <v>0.000399984214560168</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
       <c r="D196">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E196">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F196">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>406</v>
@@ -12723,25 +12723,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0004001029332939684</v>
+        <v>0.000399984214560168</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E197">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F197">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>407</v>
@@ -12773,25 +12773,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003939988396305631</v>
+        <v>0.0003689908683236729</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F198">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>408</v>
@@ -12823,25 +12823,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003939988396305631</v>
+        <v>0.0003689908683236729</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>65</v>
+        <v>536</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>409</v>
@@ -12873,25 +12873,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003634692786905764</v>
+        <v>0.0003295313725192368</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="F200">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>44</v>
+        <v>942</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>410</v>
@@ -12923,25 +12923,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003634692786905764</v>
+        <v>0.0003281010741567729</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E201">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F201">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>536</v>
+        <v>34</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>411</v>
@@ -12973,25 +12973,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.000324600255880637</v>
+        <v>0.0003281010741567729</v>
       </c>
       <c r="C202">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="F202">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>942</v>
+        <v>121</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>412</v>
@@ -13023,7 +13023,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0003231913605427148</v>
+        <v>0.0003281010741567729</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13041,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>413</v>
@@ -13073,25 +13073,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0003231913605427148</v>
+        <v>0.0002828315504830698</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E204">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F204">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>414</v>
@@ -13123,25 +13123,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0003231913605427148</v>
+        <v>0.0002828315504830698</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E205">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F205">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>415</v>
@@ -13173,25 +13173,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002785992512824022</v>
+        <v>0.0002486890134989543</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>416</v>
@@ -13223,25 +13223,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002785992512824022</v>
+        <v>0.00023236913004639</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>417</v>
@@ -13273,25 +13273,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.000244967624172874</v>
+        <v>0.00023236913004639</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>418</v>
@@ -13323,7 +13323,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002288919519109399</v>
+        <v>0.00023236913004639</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13341,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>419</v>
@@ -13373,25 +13373,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002288919519109399</v>
+        <v>0.0002052444504779548</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>420</v>
@@ -13423,25 +13423,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002288919519109399</v>
+        <v>0.0002052444504779548</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>421</v>
@@ -13473,7 +13473,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002021731668032175</v>
+        <v>0.0002052444504779548</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -13491,7 +13491,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>422</v>
@@ -13523,25 +13523,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002021731668032175</v>
+        <v>0.0001758496878517034</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>423</v>
@@ -13573,25 +13573,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0002021731668032175</v>
+        <v>0.0001758496878517034</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F214">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>424</v>
@@ -13623,7 +13623,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001732182682237968</v>
+        <v>0.0001758496878517034</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13641,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>425</v>
@@ -13673,7 +13673,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001732182682237968</v>
+        <v>0.0001758496878517034</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13691,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>426</v>
@@ -13723,7 +13723,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001732182682237968</v>
+        <v>0.0001758496878517034</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>427</v>
@@ -13773,25 +13773,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001732182682237968</v>
+        <v>0.000159581012564326</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E218">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F218">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>428</v>
@@ -13823,25 +13823,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001732182682237968</v>
+        <v>0.000112840816132851</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>429</v>
@@ -13873,13 +13873,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001571930378466392</v>
+        <v>0.000112840816132851</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E220">
         <v>0.75</v>
@@ -13891,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>430</v>
@@ -13923,7 +13923,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001111522630166726</v>
+        <v>0.000112840816132851</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>431</v>
@@ -13973,25 +13973,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001111522630166726</v>
+        <v>0.0001122596327527257</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>432</v>
@@ -14023,25 +14023,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001111522630166726</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>433</v>
@@ -14073,25 +14073,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001105797764808384</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F224">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>434</v>
@@ -14123,7 +14123,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14141,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>435</v>
@@ -14173,7 +14173,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14191,7 +14191,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>436</v>
@@ -14223,7 +14223,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14241,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>437</v>
@@ -14273,7 +14273,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14291,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>438</v>
@@ -14323,7 +14323,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>439</v>
@@ -14373,7 +14373,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14391,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>440</v>
@@ -14423,7 +14423,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14441,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>441</v>
@@ -14473,7 +14473,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14491,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>442</v>
@@ -14523,7 +14523,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14541,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>443</v>
@@ -14573,7 +14573,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>4.524204108970951E-05</v>
+        <v>4.59293288460806E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>444</v>
@@ -14623,25 +14623,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>4.524204108970951E-05</v>
+        <v>4.350084389114701E-05</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>445</v>
@@ -14673,25 +14673,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>4.524204108970951E-05</v>
+        <v>2.244487368712273E-05</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F236">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>446</v>
@@ -14723,25 +14723,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>4.284989605129529E-05</v>
+        <v>2.244487368712273E-05</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="F237">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>447</v>
@@ -14773,25 +14773,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>2.210900797199E-05</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>448</v>
@@ -14823,25 +14823,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>2.210900797199E-05</v>
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>449</v>
@@ -14891,7 +14891,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>450</v>
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>451</v>
@@ -14991,7 +14991,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>452</v>
@@ -15041,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>453</v>
@@ -15091,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>454</v>
@@ -15141,10 +15141,10 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K245">
         <v>0.0009354697926645602</v>
@@ -15191,10 +15191,10 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K246">
         <v>0.0009280928597101002</v>
@@ -15241,10 +15241,10 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K247">
         <v>0.0009204639566228989</v>
@@ -15291,10 +15291,10 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K248">
         <v>0.0008798109061259321</v>
@@ -15319,32 +15319,8 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249">
-        <v>0.5</v>
-      </c>
-      <c r="F249">
-        <v>0.5</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249">
-        <v>53</v>
-      </c>
       <c r="J249" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K249">
         <v>0.0008724708529489386</v>
@@ -15369,30 +15345,6 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>2</v>
-      </c>
-      <c r="E250">
-        <v>0.5</v>
-      </c>
-      <c r="F250">
-        <v>0.5</v>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250">
-        <v>27</v>
-      </c>
       <c r="J250" s="1" t="s">
         <v>455</v>
       </c>
@@ -18436,7 +18388,7 @@
     </row>
     <row r="367" spans="10:17">
       <c r="J367" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K367">
         <v>0.0008502617012564458</v>
@@ -18462,7 +18414,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K368">
         <v>0.0008068950431408214</v>
@@ -18488,7 +18440,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K369">
         <v>0.0007899863083731388</v>
@@ -18514,7 +18466,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K370">
         <v>0.0007568571278012349</v>
@@ -18540,7 +18492,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K371">
         <v>0.0007185642705158231</v>
@@ -18566,7 +18518,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K372">
         <v>0.0007007123426351772</v>
@@ -18592,7 +18544,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K373">
         <v>0.000673573323233299</v>
@@ -18618,7 +18570,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K374">
         <v>0.000673573323233299</v>
@@ -18644,7 +18596,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K375">
         <v>0.0006562607546718276</v>
@@ -18670,7 +18622,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K376">
         <v>0.0006503177526998258</v>
@@ -18696,7 +18648,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K377">
         <v>0.0006280166879113799</v>
@@ -18722,7 +18674,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K378">
         <v>0.0006280166879113799</v>
@@ -18748,7 +18700,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K379">
         <v>0.0006280166879113799</v>
@@ -18774,7 +18726,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K380">
         <v>0.0006280166879113799</v>
@@ -18800,7 +18752,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K381">
         <v>0.0006124589960450205</v>
@@ -26366,7 +26318,7 @@
     </row>
     <row r="672" spans="10:17">
       <c r="J672" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K672">
         <v>0.0005818863176959099</v>
@@ -26392,7 +26344,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K673">
         <v>0.0005818863176959099</v>
@@ -26418,7 +26370,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K674">
         <v>0.0005818863176959099</v>
@@ -26444,7 +26396,7 @@
     </row>
     <row r="675" spans="10:17">
       <c r="J675" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K675">
         <v>0.0005351788074576259</v>
@@ -26470,7 +26422,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K676">
         <v>0.0005351788074576259</v>
@@ -26496,7 +26448,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K677">
         <v>0.0005351788074576259</v>
@@ -26548,7 +26500,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K679">
         <v>0.0004878978932826845</v>
@@ -26574,7 +26526,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K680">
         <v>0.0004799026682947292</v>
@@ -26600,7 +26552,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K681">
         <v>0.0004400582660317348</v>
@@ -26626,7 +26578,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K682">
         <v>0.0004400582660317348</v>
@@ -26652,7 +26604,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K683">
         <v>0.0004152847507298389</v>
@@ -26678,7 +26630,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K684">
         <v>0.0004139256123706924</v>
@@ -26704,7 +26656,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K685">
         <v>0.0003945227203503627</v>
@@ -26730,7 +26682,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K686">
         <v>0.0003916915132224731</v>
@@ -26756,7 +26708,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K687">
         <v>0.0003428556208062218</v>
@@ -26782,7 +26734,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K688">
         <v>0.0003104924451763863</v>
@@ -26808,7 +26760,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K689">
         <v>0.0002936506633644341</v>
@@ -26834,7 +26786,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K690">
         <v>0.0002936506633644341</v>
@@ -26860,7 +26812,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K691">
         <v>0.0002756695844762555</v>
@@ -26886,7 +26838,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K692">
         <v>0.0002756695844762555</v>
@@ -26912,7 +26864,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K693">
         <v>0.0002442457674160984</v>
@@ -26938,7 +26890,7 @@
     </row>
     <row r="694" spans="10:17">
       <c r="J694" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K694">
         <v>0.0002442457674160984</v>
@@ -26964,7 +26916,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K695">
         <v>0.0002442457674160984</v>
@@ -26990,7 +26942,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K696">
         <v>0.000194927832550038</v>
@@ -27016,7 +26968,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K697">
         <v>0.000194927832550038</v>
@@ -27042,7 +26994,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K698">
         <v>0.0001692803366843144</v>
@@ -27068,7 +27020,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K699">
         <v>0.0001461954338715609</v>
@@ -27094,7 +27046,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K700">
         <v>0.0001461954338715609</v>
@@ -27120,7 +27072,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K701">
         <v>0.0001461954338715609</v>
@@ -27146,7 +27098,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K702">
         <v>0.0001399448656403741</v>
@@ -27172,7 +27124,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K703">
         <v>0.0001080378218207149</v>
@@ -27198,7 +27150,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K704">
         <v>0.0001080378218207149</v>
@@ -27224,7 +27176,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K705">
         <v>0.0001080378218207149</v>
@@ -27250,7 +27202,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K706">
         <v>9.895596348654881E-05</v>
@@ -27276,7 +27228,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K707">
         <v>9.895596348654881E-05</v>
@@ -27302,7 +27254,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K708">
         <v>9.895596348654881E-05</v>
@@ -27328,7 +27280,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K709">
         <v>9.895596348654881E-05</v>
@@ -27354,7 +27306,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K710">
         <v>9.895596348654881E-05</v>
@@ -27380,7 +27332,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K711">
         <v>7.777002132324194E-05</v>
@@ -27406,7 +27358,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K712">
         <v>5.499170945068678E-05</v>
@@ -27432,7 +27384,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K713">
         <v>5.499170945068678E-05</v>
@@ -27458,7 +27410,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K714">
         <v>5.499170945068678E-05</v>
@@ -27484,7 +27436,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K715">
         <v>4.994177753146844E-05</v>
@@ -27510,7 +27462,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K716">
         <v>1.82757610571873E-05</v>
@@ -27536,7 +27488,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K717">
         <v>1.82757610571873E-05</v>
@@ -27562,7 +27514,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K718">
         <v>1.82757610571873E-05</v>
@@ -27588,7 +27540,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K719">
         <v>1.82757610571873E-05</v>
@@ -27614,7 +27566,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K720">
         <v>1.82757610571873E-05</v>
@@ -27640,7 +27592,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K721">
         <v>1.82757610571873E-05</v>
@@ -27666,7 +27618,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K722">
         <v>1.82757610571873E-05</v>
@@ -27692,7 +27644,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K723">
         <v>1.82757610571873E-05</v>
@@ -27718,7 +27670,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K724">
         <v>1.82757610571873E-05</v>
@@ -27744,7 +27696,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K725">
         <v>1.82757610571873E-05</v>
@@ -27770,7 +27722,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K726">
         <v>1.82757610571873E-05</v>
@@ -27796,7 +27748,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K727">
         <v>1.82757610571873E-05</v>
@@ -27822,7 +27774,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K728">
         <v>1.580128590476785E-05</v>
@@ -27848,7 +27800,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K729">
         <v>7.734516485550484E-06</v>
@@ -27874,7 +27826,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K730">
         <v>7.734516485550484E-06</v>
@@ -27900,7 +27852,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K731">
         <v>0</v>
@@ -27926,7 +27878,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K732">
         <v>0</v>
@@ -27952,7 +27904,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K733">
         <v>0</v>
@@ -27978,7 +27930,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K734">
         <v>0</v>
@@ -28004,7 +27956,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K735">
         <v>0</v>
@@ -28030,7 +27982,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K736">
         <v>0</v>
@@ -28056,7 +28008,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K737">
         <v>0</v>
@@ -28082,7 +28034,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K738">
         <v>0</v>
@@ -28108,7 +28060,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K739">
         <v>0</v>
@@ -28134,7 +28086,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K740">
         <v>0</v>
@@ -28160,7 +28112,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K741">
         <v>0</v>
